--- a/dist/n2017_PY_Gasto_en_Salud_por_Fuente_de_Financiamiento_1993-2017.xlsx
+++ b/dist/n2017_PY_Gasto_en_Salud_por_Fuente_de_Financiamiento_1993-2017.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mi unidad\P_Final_DVZ\finalWeb\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF40027B-A746-48DF-8217-A98C87F7735C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568D2343-BA6D-458D-8BF2-5F58149FB0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1624,10 +1624,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK760"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/dist/n2017_PY_Gasto_en_Salud_por_Fuente_de_Financiamiento_1993-2017.xlsx
+++ b/dist/n2017_PY_Gasto_en_Salud_por_Fuente_de_Financiamiento_1993-2017.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mi unidad\P_Final_DVZ\finalWeb\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF40027B-A746-48DF-8217-A98C87F7735C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB57C0AB-3AAA-4407-9765-420B24900EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GFF_CORR" sheetId="1" r:id="rId1"/>
@@ -1624,10 +1624,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK760"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2650,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="AF9" s="62">
-        <v>1059.6243171034</v>
+        <v>11059.6243171034</v>
       </c>
       <c r="AG9" s="21">
         <v>0</v>

--- a/dist/n2017_PY_Gasto_en_Salud_por_Fuente_de_Financiamiento_1993-2017.xlsx
+++ b/dist/n2017_PY_Gasto_en_Salud_por_Fuente_de_Financiamiento_1993-2017.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mi unidad\P_Final_DVZ\finalWeb\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB57C0AB-3AAA-4407-9765-420B24900EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6464F6-2112-481E-BCFE-938EC4B035DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1627,7 +1627,7 @@
     <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="AF9" sqref="AF9"/>
+      <selection pane="bottomLeft" activeCell="AG12" sqref="AG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2650,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="AF9" s="62">
-        <v>11059.6243171034</v>
+        <v>1059.6243171034</v>
       </c>
       <c r="AG9" s="21">
         <v>0</v>
